--- a/输出结果/小组统计.xlsx
+++ b/输出结果/小组统计.xlsx
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>57</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -852,28 +852,28 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F5">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>61</v>
@@ -888,16 +888,16 @@
         <v>254</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="R5">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -970,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>68</v>
       </c>
       <c r="C11">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>115</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>38</v>
@@ -1224,10 +1224,10 @@
         <v>98</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1327,25 +1327,25 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D13">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E13">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F13">
         <v>151</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>127</v>
       </c>
       <c r="F16">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K16">
         <v>20</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S16">
         <v>7</v>
@@ -1588,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1671,13 +1671,13 @@
         <v>5</v>
       </c>
       <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>6</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1942,10 +1942,10 @@
         <v>214</v>
       </c>
       <c r="D22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>46</v>
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>58</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22">
         <v>12</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2088,13 +2088,13 @@
         <v>5</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2153,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V24">
         <v>10</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2280,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2357,25 +2357,25 @@
         <v>388</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -2390,16 +2390,16 @@
         <v>5</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -2522,28 +2522,28 @@
         <v>68</v>
       </c>
       <c r="C30">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2558,25 +2558,25 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V30">
         <v>13</v>
@@ -2709,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>9</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>8</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>7</v>
       </c>
       <c r="V32">
         <v>9</v>
@@ -2727,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="Y32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -2744,28 +2744,28 @@
         <v>68</v>
       </c>
       <c r="C33">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>125</v>
       </c>
       <c r="F33">
-        <v>990</v>
+        <v>1050</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>15</v>
@@ -2780,16 +2780,16 @@
         <v>49</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="S33">
         <v>8</v>
@@ -2810,13 +2810,13 @@
         <v>6</v>
       </c>
       <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
         <v>8</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -2883,31 +2883,31 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <v>32</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -2919,13 +2919,13 @@
         <v>5</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>325</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V37">
         <v>12</v>
@@ -3088,13 +3088,13 @@
         <v>12</v>
       </c>
       <c r="Y37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
